--- a/Beton/src/main/resources/dataSheets/testData_Raj.xlsx
+++ b/Beton/src/main/resources/dataSheets/testData_Raj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PerfectoBC\git\Beton\Beton\src\main\resources\dataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajp\git\Beton\Beton\src\main\resources\dataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="devices" sheetId="1" r:id="rId1"/>
     <sheet name="signIn_Android" sheetId="2" r:id="rId2"/>
-    <sheet name="signIn" sheetId="3" r:id="rId3"/>
+    <sheet name="signIn_IOS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>deviceName</t>
   </si>
@@ -115,7 +115,16 @@
     <t>appPackage</t>
   </si>
   <si>
-    <t>com.bloomfire.android.perfecto</t>
+    <t>rajp@perfectomobile.com</t>
+  </si>
+  <si>
+    <t>Perfecto12!</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>PerfectoMobile</t>
   </si>
 </sst>
 </file>
@@ -456,7 +465,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,13 +527,13 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -614,10 +623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,53 +650,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Beton/src/main/resources/dataSheets/testData_Raj.xlsx
+++ b/Beton/src/main/resources/dataSheets/testData_Raj.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajp\git\Beton\Beton\src\main\resources\dataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avner/git/Beton/Beton/src/main/resources/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7710" windowHeight="3570" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="devices" sheetId="1" r:id="rId1"/>
     <sheet name="signIn_Android" sheetId="2" r:id="rId2"/>
     <sheet name="signIn_IOS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>deviceName</t>
   </si>
@@ -91,15 +94,9 @@
     <t>SATeam@perfectomobile.com</t>
   </si>
   <si>
-    <t>SATeam123</t>
-  </si>
-  <si>
     <t>avnerg@perfectomobile.com</t>
   </si>
   <si>
-    <t>a1001a</t>
-  </si>
-  <si>
     <t>Sasha</t>
   </si>
   <si>
@@ -109,22 +106,22 @@
     <t>brianc@perfectomobile.com</t>
   </si>
   <si>
-    <t>Perfecto99</t>
-  </si>
-  <si>
     <t>appPackage</t>
   </si>
   <si>
     <t>rajp@perfectomobile.com</t>
   </si>
   <si>
-    <t>Perfecto12!</t>
-  </si>
-  <si>
     <t>Raj</t>
   </si>
   <si>
     <t>PerfectoMobile</t>
+  </si>
+  <si>
+    <t>XXXXXXX</t>
+  </si>
+  <si>
+    <t>XXXXXX</t>
   </si>
 </sst>
 </file>
@@ -245,9 +242,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -280,9 +277,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -468,23 +465,23 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,21 +516,21 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -545,18 +542,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" activeCellId="1" sqref="B6 C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -567,18 +564,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -586,26 +583,26 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -625,19 +622,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -648,15 +645,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
